--- a/Data/Forecasts/IDA2/2023-12-04_exo['y_DA'].xlsx
+++ b/Data/Forecasts/IDA2/2023-12-04_exo['y_DA'].xlsx
@@ -454,7 +454,7 @@
         <v>45264.45833333334</v>
       </c>
       <c r="B2" t="n">
-        <v>102.6694030761719</v>
+        <v>124.6713943481445</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45264.47916666666</v>
       </c>
       <c r="B3" t="n">
-        <v>101.3113098144531</v>
+        <v>122.3664627075195</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45264.5</v>
       </c>
       <c r="B4" t="n">
-        <v>101.6814117431641</v>
+        <v>119.7920227050781</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45264.52083333334</v>
       </c>
       <c r="B5" t="n">
-        <v>102.6931686401367</v>
+        <v>121.3308792114258</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45264.54166666666</v>
       </c>
       <c r="B6" t="n">
-        <v>118.4635543823242</v>
+        <v>127.6945419311523</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45264.5625</v>
       </c>
       <c r="B7" t="n">
-        <v>108.8498382568359</v>
+        <v>117.9959106445312</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45264.58333333334</v>
       </c>
       <c r="B8" t="n">
-        <v>117.5120010375977</v>
+        <v>125.3270645141602</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45264.60416666666</v>
       </c>
       <c r="B9" t="n">
-        <v>112.2382736206055</v>
+        <v>122.6628952026367</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45264.625</v>
       </c>
       <c r="B10" t="n">
-        <v>117.4095840454102</v>
+        <v>126.8737945556641</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45264.64583333334</v>
       </c>
       <c r="B11" t="n">
-        <v>134.4873504638672</v>
+        <v>144.7876281738281</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45264.66666666666</v>
       </c>
       <c r="B12" t="n">
-        <v>143.4914855957031</v>
+        <v>150.7129821777344</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45264.6875</v>
       </c>
       <c r="B13" t="n">
-        <v>186.5215911865234</v>
+        <v>189.806640625</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45264.70833333334</v>
       </c>
       <c r="B14" t="n">
-        <v>196.6296691894531</v>
+        <v>197.7531890869141</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45264.72916666666</v>
       </c>
       <c r="B15" t="n">
-        <v>195.9726867675781</v>
+        <v>198.4947662353516</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45264.75</v>
       </c>
       <c r="B16" t="n">
-        <v>176.5131530761719</v>
+        <v>175.6856689453125</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45264.77083333334</v>
       </c>
       <c r="B17" t="n">
-        <v>151.1469116210938</v>
+        <v>158.7167358398438</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45264.79166666666</v>
       </c>
       <c r="B18" t="n">
-        <v>131.9124145507812</v>
+        <v>140.3737335205078</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45264.8125</v>
       </c>
       <c r="B19" t="n">
-        <v>117.203483581543</v>
+        <v>125.7741546630859</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45264.83333333334</v>
       </c>
       <c r="B20" t="n">
-        <v>109.4339370727539</v>
+        <v>115.9532928466797</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45264.85416666666</v>
       </c>
       <c r="B21" t="n">
-        <v>89.293701171875</v>
+        <v>94.09967041015625</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45264.875</v>
       </c>
       <c r="B22" t="n">
-        <v>95.91544342041016</v>
+        <v>96.89784240722656</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45264.89583333334</v>
       </c>
       <c r="B23" t="n">
-        <v>87.81755065917969</v>
+        <v>85.75377655029297</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45264.91666666666</v>
       </c>
       <c r="B24" t="n">
-        <v>79.87572479248047</v>
+        <v>80.98622131347656</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45264.9375</v>
       </c>
       <c r="B25" t="n">
-        <v>67.76606750488281</v>
+        <v>68.49890899658203</v>
       </c>
     </row>
   </sheetData>
